--- a/data/trans_orig/P16A99-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A99-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738318E6-5842-4EAC-96A5-3FE195302251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5DF76F-557E-447E-B4E4-39780B162F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5A1F0D6-26B4-4597-9DDF-922030B7EE9A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02B21BA2-8012-42F1-954B-7C03DEDD2532}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="124">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2007 (Tasa respuesta: 49,81%)</t>
   </si>
@@ -116,256 +116,262 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
+    <t>99,75%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -816,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A40F80D-EFB0-4F8E-86F5-B6835D8E9371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB37F1D-35B8-4D7D-8A7D-FA052249331C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1567,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E4A3E5-B673-4BBE-8999-7B7B2CD99F25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600095CF-FA58-4111-89B9-49B566C70E7F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2162,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2171,13 +2177,13 @@
         <v>2177</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2186,13 +2192,13 @@
         <v>3225</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,10 +2213,10 @@
         <v>1692866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2222,10 +2228,10 @@
         <v>1057669</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2237,13 +2243,13 @@
         <v>2750535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CA7011-4267-4BDA-A15A-122CAE8F42E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7E5B47-3A49-444B-82FD-B3163B34623C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2335,7 +2341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2448,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2463,7 +2469,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2478,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2502,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2511,7 +2517,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2526,7 +2532,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2603,7 +2609,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2618,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2633,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2657,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2773,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2788,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,7 +2812,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2821,7 +2827,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2836,7 +2842,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2907,13 +2913,13 @@
         <v>1332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2928,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2943,7 +2949,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,7 +2982,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2991,7 +2997,7 @@
         <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3069,7 +3075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABBC617-6A6D-49D7-9691-125822A7B42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2AC92B-9C88-44A2-BAAF-ABF2D4CC20CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3086,7 +3092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3199,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3214,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3229,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3253,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3262,7 +3268,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3277,7 +3283,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3354,7 +3360,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3402,7 +3408,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3509,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3524,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3539,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,7 +3563,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3572,7 +3578,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3587,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3664,7 +3670,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3712,7 +3718,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3742,7 +3748,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A99-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A99-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5DF76F-557E-447E-B4E4-39780B162F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00961B65-5695-462D-85EE-AA257273F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02B21BA2-8012-42F1-954B-7C03DEDD2532}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9EDB3854-77B4-43E4-A1C3-B2C6B87879F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="120">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2007 (Tasa respuesta: 49,81%)</t>
   </si>
@@ -116,262 +116,250 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2016 (Tasa respuesta: 43,2%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
+    <t>0,37%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2012 (Tasa respuesta: 40,03%)</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2015 (Tasa respuesta: 43,2%)</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
     <t>99,63%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 3 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -822,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB37F1D-35B8-4D7D-8A7D-FA052249331C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9CCE7A-A3E8-483A-BA65-BD2E20D3170E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1573,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600095CF-FA58-4111-89B9-49B566C70E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4238E773-8C15-4699-8108-56447160D176}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1858,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1873,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1906,7 +1894,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -1921,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2013,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2028,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2043,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2049,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2076,7 +2064,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2091,7 +2079,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2162,13 +2150,13 @@
         <v>1048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2177,13 +2165,13 @@
         <v>2177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2192,13 +2180,13 @@
         <v>3225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,10 +2201,10 @@
         <v>1692866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2228,10 +2216,10 @@
         <v>1057669</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2243,13 +2231,13 @@
         <v>2750535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7E5B47-3A49-444B-82FD-B3163B34623C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AB5FE5-AE69-4722-8759-1294A2CC70CD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2341,7 +2329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2454,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2469,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2484,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2517,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2532,7 +2520,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2609,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2624,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2639,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2672,7 +2660,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2687,7 +2675,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2764,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2779,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2794,7 +2782,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,7 +2800,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2827,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2842,7 +2830,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2913,13 +2901,13 @@
         <v>1332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2934,7 +2922,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2949,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,10 +2952,10 @@
         <v>1699102</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2982,7 +2970,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2997,7 +2985,7 @@
         <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3075,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2AC92B-9C88-44A2-BAAF-ABF2D4CC20CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91BB98A-0BD6-406D-B801-CC1D28F7EB42}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3092,7 +3080,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3205,7 +3193,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3220,7 +3208,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3235,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3241,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3268,7 +3256,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3283,7 +3271,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3360,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3375,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3408,7 +3396,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3423,7 +3411,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3515,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3530,7 +3518,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3545,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3551,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3578,7 +3566,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3593,7 +3581,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3670,7 +3658,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3700,7 +3688,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,7 +3706,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3742,13 +3730,13 @@
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>2952540</v>
+        <v>2952539</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3793,7 +3781,7 @@
         <v>3070</v>
       </c>
       <c r="N15" s="7">
-        <v>2952540</v>
+        <v>2952539</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
